--- a/parameter/computation_times.xlsx
+++ b/parameter/computation_times.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="42" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="52" uniqueCount="6">
   <si>
     <t>m</t>
   </si>
@@ -108,7 +108,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="B2" s="0">
         <v>1000</v>
@@ -117,15 +117,15 @@
         <v>5</v>
       </c>
       <c r="D2" s="0">
-        <v>0.0016408388999999998</v>
+        <v>0.088383743066666687</v>
       </c>
       <c r="E2" s="0">
-        <v>0.0069978638362167772</v>
+        <v>0.02416583165623715</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="B3" s="0">
         <v>1000</v>
@@ -134,15 +134,15 @@
         <v>10</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0011894138666666667</v>
+        <v>0.21383785956666665</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00090921698470681968</v>
+        <v>0.012612515360653354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="B4" s="0">
         <v>1000</v>
@@ -151,15 +151,15 @@
         <v>15</v>
       </c>
       <c r="D4" s="0">
-        <v>0.0015234140000000001</v>
+        <v>0.34335021673333344</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00044051398170006072</v>
+        <v>0.049825158746721339</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="B5" s="0">
         <v>10000</v>
@@ -168,15 +168,15 @@
         <v>5</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0002344042333333333</v>
+        <v>0.080695061200000015</v>
       </c>
       <c r="E5" s="0">
-        <v>1.7603100962483918e-05</v>
+        <v>0.012642795246770231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="B6" s="0">
         <v>10000</v>
@@ -185,15 +185,15 @@
         <v>10</v>
       </c>
       <c r="D6" s="0">
-        <v>0.0012645235333333333</v>
+        <v>0.20863067786666667</v>
       </c>
       <c r="E6" s="0">
-        <v>0.00041250069784749604</v>
+        <v>0.0021439159012931704</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="B7" s="0">
         <v>10000</v>
@@ -202,15 +202,15 @@
         <v>15</v>
       </c>
       <c r="D7" s="0">
-        <v>0.0015833166666666667</v>
+        <v>0.31700812909999992</v>
       </c>
       <c r="E7" s="0">
-        <v>0.00025366107157948097</v>
+        <v>0.0078489174551191771</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="B8" s="0">
         <v>100000</v>
@@ -219,15 +219,15 @@
         <v>5</v>
       </c>
       <c r="D8" s="0">
-        <v>0.00022796666666666669</v>
+        <v>0.077652831900000011</v>
       </c>
       <c r="E8" s="0">
-        <v>1.4708627056427037e-05</v>
+        <v>0.0016953108564628043</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="B9" s="0">
         <v>100000</v>
@@ -236,15 +236,15 @@
         <v>10</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0010468430333333335</v>
+        <v>0.21004353203333329</v>
       </c>
       <c r="E9" s="0">
-        <v>0.00026979548966622893</v>
+        <v>0.0028538188898812062</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="B10" s="0">
         <v>100000</v>
@@ -253,15 +253,15 @@
         <v>15</v>
       </c>
       <c r="D10" s="0">
-        <v>0.0012452222666666664</v>
+        <v>0.32132738739999994</v>
       </c>
       <c r="E10" s="0">
-        <v>0.00025417240225578813</v>
+        <v>0.013970608013001413</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="B11" s="0">
         <v>1000000</v>
@@ -270,15 +270,15 @@
         <v>5</v>
       </c>
       <c r="D11" s="0">
-        <v>0.00021153469999999992</v>
+        <v>0.077219823666666701</v>
       </c>
       <c r="E11" s="0">
-        <v>1.2532421488091294e-05</v>
+        <v>0.00022058081624864683</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="B12" s="0">
         <v>1000000</v>
@@ -287,15 +287,15 @@
         <v>10</v>
       </c>
       <c r="D12" s="0">
-        <v>0.0010668082666666666</v>
+        <v>0.20960139719999998</v>
       </c>
       <c r="E12" s="0">
-        <v>0.00025822353755464812</v>
+        <v>0.0025624920556916145</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="B13" s="0">
         <v>1000000</v>
@@ -304,15 +304,15 @@
         <v>15</v>
       </c>
       <c r="D13" s="0">
-        <v>0.001403243033333333</v>
+        <v>0.32258615549999992</v>
       </c>
       <c r="E13" s="0">
-        <v>0.00030025102048286006</v>
+        <v>0.020859666892915001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="B14" s="0">
         <v>10000000</v>
@@ -321,15 +321,15 @@
         <v>5</v>
       </c>
       <c r="D14" s="0">
-        <v>0.00022568766666666669</v>
+        <v>0.077872737533333306</v>
       </c>
       <c r="E14" s="0">
-        <v>8.2843590147788215e-05</v>
+        <v>0.002657746308959551</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="B15" s="0">
         <v>10000000</v>
@@ -338,15 +338,15 @@
         <v>10</v>
       </c>
       <c r="D15" s="0">
-        <v>0.0010187638333333333</v>
+        <v>0.22127124880000001</v>
       </c>
       <c r="E15" s="0">
-        <v>0.00022212621586480857</v>
+        <v>0.018885995367588313</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="B16" s="0">
         <v>10000000</v>
@@ -355,15 +355,15 @@
         <v>15</v>
       </c>
       <c r="D16" s="0">
-        <v>0.0014670611333333335</v>
+        <v>0.34260818193333342</v>
       </c>
       <c r="E16" s="0">
-        <v>0.00030442145498574302</v>
+        <v>0.05332110729393038</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>10000</v>
+        <v>10000000</v>
       </c>
       <c r="B17" s="0">
         <v>1000</v>
@@ -372,15 +372,15 @@
         <v>5</v>
       </c>
       <c r="D17" s="0">
-        <v>0.00095371666666666649</v>
+        <v>1.3840139735666668</v>
       </c>
       <c r="E17" s="0">
-        <v>0.00011301614267831415</v>
+        <v>0.24132038651726084</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>10000</v>
+        <v>10000000</v>
       </c>
       <c r="B18" s="0">
         <v>1000</v>
@@ -389,15 +389,15 @@
         <v>10</v>
       </c>
       <c r="D18" s="0">
-        <v>0.0025748276999999994</v>
+        <v>3.3437644235999993</v>
       </c>
       <c r="E18" s="0">
-        <v>0.00049985277689709251</v>
+        <v>0.79861225727747309</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>10000</v>
+        <v>10000000</v>
       </c>
       <c r="B19" s="0">
         <v>1000</v>
@@ -406,15 +406,15 @@
         <v>15</v>
       </c>
       <c r="D19" s="0">
-        <v>0.0041639847333333332</v>
+        <v>29.412192419433335</v>
       </c>
       <c r="E19" s="0">
-        <v>0.00057743735842187831</v>
+        <v>6.3886661633821564</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>10000</v>
+        <v>10000000</v>
       </c>
       <c r="B20" s="0">
         <v>10000</v>
@@ -423,15 +423,15 @@
         <v>5</v>
       </c>
       <c r="D20" s="0">
-        <v>0.0010188582666666667</v>
+        <v>1.2721392637666662</v>
       </c>
       <c r="E20" s="0">
-        <v>9.4222921588931979e-05</v>
+        <v>0.0316487023764482</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>10000</v>
+        <v>10000000</v>
       </c>
       <c r="B21" s="0">
         <v>10000</v>
@@ -440,15 +440,15 @@
         <v>10</v>
       </c>
       <c r="D21" s="0">
-        <v>0.0025683527000000001</v>
+        <v>3.8296882792333329</v>
       </c>
       <c r="E21" s="0">
-        <v>0.00047661509724465043</v>
+        <v>1.8250102572827476</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>10000</v>
+        <v>10000000</v>
       </c>
       <c r="B22" s="0">
         <v>10000</v>
@@ -457,15 +457,15 @@
         <v>15</v>
       </c>
       <c r="D22" s="0">
-        <v>0.003717309766666667</v>
+        <v>37.908292411099993</v>
       </c>
       <c r="E22" s="0">
-        <v>0.00038517486578764449</v>
+        <v>12.730121115690689</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>10000</v>
+        <v>10000000</v>
       </c>
       <c r="B23" s="0">
         <v>100000</v>
@@ -474,15 +474,15 @@
         <v>5</v>
       </c>
       <c r="D23" s="0">
-        <v>0.00092990556666666657</v>
+        <v>1.2793852222333335</v>
       </c>
       <c r="E23" s="0">
-        <v>3.0134048537966262e-05</v>
+        <v>0.039625370564813078</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>10000</v>
+        <v>10000000</v>
       </c>
       <c r="B24" s="0">
         <v>100000</v>
@@ -491,15 +491,15 @@
         <v>10</v>
       </c>
       <c r="D24" s="0">
-        <v>0.0024220388999999995</v>
+        <v>4.7927361112333342</v>
       </c>
       <c r="E24" s="0">
-        <v>0.0003421585578173945</v>
+        <v>2.2882323976470733</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>10000</v>
+        <v>10000000</v>
       </c>
       <c r="B25" s="0">
         <v>100000</v>
@@ -508,15 +508,15 @@
         <v>15</v>
       </c>
       <c r="D25" s="0">
-        <v>0.0038804862333333325</v>
+        <v>45.926092233266658</v>
       </c>
       <c r="E25" s="0">
-        <v>0.000486483830173829</v>
+        <v>14.443016279214342</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>10000</v>
+        <v>10000000</v>
       </c>
       <c r="B26" s="0">
         <v>1000000</v>
@@ -525,15 +525,15 @@
         <v>5</v>
       </c>
       <c r="D26" s="0">
-        <v>0.00096421513333333345</v>
+        <v>1.2893515485333333</v>
       </c>
       <c r="E26" s="0">
-        <v>9.9951064596194542e-05</v>
+        <v>0.049010750408511682</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>10000</v>
+        <v>10000000</v>
       </c>
       <c r="B27" s="0">
         <v>1000000</v>
@@ -542,15 +542,15 @@
         <v>10</v>
       </c>
       <c r="D27" s="0">
-        <v>0.0025271668333333329</v>
+        <v>3.7576882917666663</v>
       </c>
       <c r="E27" s="0">
-        <v>0.00038694852393871535</v>
+        <v>1.7893287209711066</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>10000</v>
+        <v>10000000</v>
       </c>
       <c r="B28" s="0">
         <v>1000000</v>
@@ -559,15 +559,15 @@
         <v>15</v>
       </c>
       <c r="D28" s="0">
-        <v>0.0037699693999999995</v>
+        <v>30.048144476499996</v>
       </c>
       <c r="E28" s="0">
-        <v>0.00051306894948182778</v>
+        <v>8.9675771417809802</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>10000</v>
+        <v>10000000</v>
       </c>
       <c r="B29" s="0">
         <v>10000000</v>
@@ -576,15 +576,15 @@
         <v>5</v>
       </c>
       <c r="D29" s="0">
-        <v>0.0013991486000000002</v>
+        <v>1.3484858471999999</v>
       </c>
       <c r="E29" s="0">
-        <v>0.001803354033670031</v>
+        <v>0.15556921514084138</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>10000</v>
+        <v>10000000</v>
       </c>
       <c r="B30" s="0">
         <v>10000000</v>
@@ -593,15 +593,15 @@
         <v>10</v>
       </c>
       <c r="D30" s="0">
-        <v>0.0030296082999999997</v>
+        <v>3.3202891791666662</v>
       </c>
       <c r="E30" s="0">
-        <v>0.0017411806878273055</v>
+        <v>0.87502294015140292</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>10000</v>
+        <v>10000000</v>
       </c>
       <c r="B31" s="0">
         <v>10000000</v>
@@ -610,10 +610,10 @@
         <v>15</v>
       </c>
       <c r="D31" s="0">
-        <v>0.0036410652000000003</v>
+        <v>23.158084525000007</v>
       </c>
       <c r="E31" s="0">
-        <v>0.00041409377800714962</v>
+        <v>5.1763859340255722</v>
       </c>
     </row>
     <row r="32">
